--- a/run/templates/Module_Template.xlsx
+++ b/run/templates/Module_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/phygbu_leeds_ac_uk/Documents/Documents/Programming/phas_vitals/run/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\phas_vitals\phas_vitals\run\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{888AF671-0EBB-4541-84A2-B7CADDE2B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDED43D3-5F8D-40D8-9DC8-14998143D6C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479F2911-F28B-477F-BF68-394B3ED9324B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1692" yWindow="-108" windowWidth="29136" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExamTemplate" sheetId="2" r:id="rId1"/>
@@ -1723,67 +1723,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_3020OM99" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1866,36 +1806,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1916,6 +1826,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFAFB1"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2228,7 +2145,7 @@
   <dimension ref="A1:AF298"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:Q280"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17004,20 +16921,23 @@
   <mergeCells count="1">
     <mergeCell ref="T1:T6"/>
   </mergeCells>
-  <conditionalFormatting sqref="S17:S281">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
+  <conditionalFormatting sqref="E16:Q281">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>AND(NOT(ISBLANK($A16)),NOT(ISBLANK(E$12)),EXACT(E16,"P"))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>AND(NOT(ISBLANK($A16)),NOT(ISBLANK(E$12)),EXACT(E16,"F"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>AND(NOT(ISBLANK($A16)),NOT(ISBLANK(E$12)),ISBLANK(E16))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:Q280">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>""</formula>
+  <conditionalFormatting sqref="S16:S281">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND(NOT(ISBLANK($A16)),EXACT(S16,"P"))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(NOT(ISBLANK($A16)),EXACT(S16,"F"))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/run/templates/Module_Template.xlsx
+++ b/run/templates/Module_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\phas_vitals\phas_vitals\run\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\phas_vitals\run\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479F2911-F28B-477F-BF68-394B3ED9324B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79CA508-85F0-4541-99D4-3B219E5A5E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="617" yWindow="-103" windowWidth="32400" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExamTemplate" sheetId="2" r:id="rId1"/>
@@ -1723,57 +1723,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_3020OM99" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2144,26 +2094,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF298"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="23.07421875" style="7" customWidth="1"/>
     <col min="2" max="2" width="16" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16" width="5.77734375" style="107" customWidth="1"/>
-    <col min="17" max="17" width="5.77734375" style="26" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="51.109375" style="6" customWidth="1"/>
-    <col min="21" max="29" width="2.77734375" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="7"/>
+    <col min="3" max="3" width="10.765625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" style="7" customWidth="1"/>
+    <col min="5" max="16" width="5.765625" style="107" customWidth="1"/>
+    <col min="17" max="17" width="5.765625" style="26" customWidth="1"/>
+    <col min="18" max="18" width="6.765625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="4.765625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="51.07421875" style="6" customWidth="1"/>
+    <col min="21" max="29" width="2.765625" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="9.07421875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2194,7 +2144,7 @@
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2223,7 +2173,7 @@
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
     </row>
-    <row r="3" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2252,7 +2202,7 @@
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
     </row>
-    <row r="4" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2279,7 +2229,7 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
     </row>
-    <row r="5" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -2308,7 +2258,7 @@
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
     </row>
-    <row r="6" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>28</v>
       </c>
@@ -2337,7 +2287,7 @@
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
     </row>
-    <row r="7" spans="1:32" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="21" t="s">
         <v>5</v>
@@ -2369,7 +2319,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
     </row>
-    <row r="8" spans="1:32" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="28"/>
       <c r="B8" s="29" t="s">
         <v>7</v>
@@ -2396,7 +2346,7 @@
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
     </row>
-    <row r="9" spans="1:32" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="31"/>
       <c r="B9" s="32"/>
       <c r="C9" s="140"/>
@@ -2423,7 +2373,7 @@
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
     </row>
-    <row r="10" spans="1:32" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="37" t="s">
@@ -2456,7 +2406,7 @@
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
     </row>
-    <row r="11" spans="1:32" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="42"/>
       <c r="B11" s="43"/>
       <c r="C11" s="44"/>
@@ -2485,7 +2435,7 @@
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
     </row>
-    <row r="12" spans="1:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="42"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44" t="s">
@@ -2512,7 +2462,7 @@
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
     </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="49"/>
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
@@ -2539,7 +2489,7 @@
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
     </row>
-    <row r="14" spans="1:32" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="55" t="s">
         <v>13</v>
       </c>
@@ -2572,7 +2522,7 @@
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
     </row>
-    <row r="15" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="63"/>
       <c r="B15" s="64"/>
       <c r="C15" s="65"/>
@@ -2598,7 +2548,7 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
     </row>
-    <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A16" s="72"/>
       <c r="B16" s="73"/>
       <c r="C16" s="153"/>
@@ -2618,7 +2568,7 @@
       <c r="Q16" s="76"/>
       <c r="R16" s="77"/>
       <c r="S16" s="77" t="str">
-        <f>IF(ISBLANK(C16),"",IF(COUNTA(E16:Q16)=COUNTA(E$12:Q$12),"P","F"))</f>
+        <f>IF(ISBLANK(C16),"",IF(COUNTIFS(E$13:Q$13,"100%",E16:Q16,"&lt;&gt;P")=0,"P","F"))</f>
         <v/>
       </c>
       <c r="T16" s="77"/>
@@ -2650,7 +2600,7 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
     </row>
-    <row r="17" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="153"/>
@@ -2670,7 +2620,7 @@
       <c r="Q17" s="76"/>
       <c r="R17" s="77"/>
       <c r="S17" s="77" t="str">
-        <f t="shared" ref="S17:S80" si="1">IF(ISBLANK(C17),"",IF(COUNTA(E17:Q17)=COUNTA(E$12:Q$12),"P","F"))</f>
+        <f t="shared" ref="S17:S80" si="1">IF(ISBLANK(C17),"",IF(COUNTIFS(E$13:Q$13,"100%",E17:Q17,"&lt;&gt;P")=0,"P","F"))</f>
         <v/>
       </c>
       <c r="T17" s="77"/>
@@ -2702,7 +2652,7 @@
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
     </row>
-    <row r="18" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A18" s="72"/>
       <c r="B18" s="73"/>
       <c r="C18" s="153"/>
@@ -2754,7 +2704,7 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
     </row>
-    <row r="19" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="153"/>
@@ -2806,7 +2756,7 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A20" s="72"/>
       <c r="B20" s="73"/>
       <c r="C20" s="153"/>
@@ -2858,7 +2808,7 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="153"/>
@@ -2910,7 +2860,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
     </row>
-    <row r="22" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A22" s="72"/>
       <c r="B22" s="73"/>
       <c r="C22" s="153"/>
@@ -2962,7 +2912,7 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A23" s="72"/>
       <c r="B23" s="73"/>
       <c r="C23" s="153"/>
@@ -3014,7 +2964,7 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A24" s="72"/>
       <c r="B24" s="73"/>
       <c r="C24" s="153"/>
@@ -3066,7 +3016,7 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
     </row>
-    <row r="25" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A25" s="72"/>
       <c r="B25" s="73"/>
       <c r="C25" s="153"/>
@@ -3118,7 +3068,7 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A26" s="72"/>
       <c r="B26" s="73"/>
       <c r="C26" s="153"/>
@@ -3170,7 +3120,7 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A27" s="72"/>
       <c r="B27" s="73"/>
       <c r="C27" s="153"/>
@@ -3222,7 +3172,7 @@
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A28" s="72"/>
       <c r="B28" s="73"/>
       <c r="C28" s="153"/>
@@ -3274,7 +3224,7 @@
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A29" s="72"/>
       <c r="B29" s="73"/>
       <c r="C29" s="153"/>
@@ -3326,7 +3276,7 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A30" s="72"/>
       <c r="B30" s="73"/>
       <c r="C30" s="153"/>
@@ -3378,7 +3328,7 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A31" s="72"/>
       <c r="B31" s="73"/>
       <c r="C31" s="153"/>
@@ -3430,7 +3380,7 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A32" s="72"/>
       <c r="B32" s="73"/>
       <c r="C32" s="153"/>
@@ -3482,7 +3432,7 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
     </row>
-    <row r="33" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A33" s="72"/>
       <c r="B33" s="73"/>
       <c r="C33" s="153"/>
@@ -3534,7 +3484,7 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
     </row>
-    <row r="34" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A34" s="72"/>
       <c r="B34" s="73"/>
       <c r="C34" s="153"/>
@@ -3586,7 +3536,7 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
     </row>
-    <row r="35" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A35" s="72"/>
       <c r="B35" s="73"/>
       <c r="C35" s="153"/>
@@ -3638,7 +3588,7 @@
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
     </row>
-    <row r="36" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A36" s="72"/>
       <c r="B36" s="73"/>
       <c r="C36" s="153"/>
@@ -3690,7 +3640,7 @@
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
     </row>
-    <row r="37" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A37" s="72"/>
       <c r="B37" s="73"/>
       <c r="C37" s="153"/>
@@ -3742,7 +3692,7 @@
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
     </row>
-    <row r="38" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A38" s="72"/>
       <c r="B38" s="73"/>
       <c r="C38" s="153"/>
@@ -3794,7 +3744,7 @@
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
     </row>
-    <row r="39" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A39" s="72"/>
       <c r="B39" s="73"/>
       <c r="C39" s="153"/>
@@ -3846,7 +3796,7 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
     </row>
-    <row r="40" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A40" s="72"/>
       <c r="B40" s="73"/>
       <c r="C40" s="153"/>
@@ -3898,7 +3848,7 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
     </row>
-    <row r="41" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A41" s="72"/>
       <c r="B41" s="73"/>
       <c r="C41" s="153"/>
@@ -3950,7 +3900,7 @@
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
     </row>
-    <row r="42" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A42" s="72"/>
       <c r="B42" s="73"/>
       <c r="C42" s="153"/>
@@ -4002,7 +3952,7 @@
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
     </row>
-    <row r="43" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A43" s="72"/>
       <c r="B43" s="73"/>
       <c r="C43" s="153"/>
@@ -4054,7 +4004,7 @@
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
     </row>
-    <row r="44" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A44" s="72"/>
       <c r="B44" s="73"/>
       <c r="C44" s="153"/>
@@ -4106,7 +4056,7 @@
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
     </row>
-    <row r="45" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A45" s="72"/>
       <c r="B45" s="73"/>
       <c r="C45" s="153"/>
@@ -4158,7 +4108,7 @@
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
     </row>
-    <row r="46" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A46" s="72"/>
       <c r="B46" s="73"/>
       <c r="C46" s="153"/>
@@ -4210,7 +4160,7 @@
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
     </row>
-    <row r="47" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A47" s="72"/>
       <c r="B47" s="73"/>
       <c r="C47" s="153"/>
@@ -4262,7 +4212,7 @@
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
     </row>
-    <row r="48" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A48" s="72"/>
       <c r="B48" s="73"/>
       <c r="C48" s="153"/>
@@ -4314,7 +4264,7 @@
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
     </row>
-    <row r="49" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A49" s="72"/>
       <c r="B49" s="73"/>
       <c r="C49" s="153"/>
@@ -4366,7 +4316,7 @@
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
     </row>
-    <row r="50" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A50" s="72"/>
       <c r="B50" s="73"/>
       <c r="C50" s="153"/>
@@ -4418,7 +4368,7 @@
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
     </row>
-    <row r="51" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A51" s="72"/>
       <c r="B51" s="73"/>
       <c r="C51" s="153"/>
@@ -4470,7 +4420,7 @@
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
     </row>
-    <row r="52" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A52" s="72"/>
       <c r="B52" s="73"/>
       <c r="C52" s="153"/>
@@ -4522,7 +4472,7 @@
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
     </row>
-    <row r="53" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A53" s="72"/>
       <c r="B53" s="73"/>
       <c r="C53" s="153"/>
@@ -4574,7 +4524,7 @@
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
     </row>
-    <row r="54" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A54" s="72"/>
       <c r="B54" s="73"/>
       <c r="C54" s="153"/>
@@ -4626,7 +4576,7 @@
       <c r="AB54" s="7"/>
       <c r="AC54" s="7"/>
     </row>
-    <row r="55" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A55" s="72"/>
       <c r="B55" s="73"/>
       <c r="C55" s="153"/>
@@ -4678,7 +4628,7 @@
       <c r="AB55" s="7"/>
       <c r="AC55" s="7"/>
     </row>
-    <row r="56" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A56" s="72"/>
       <c r="B56" s="73"/>
       <c r="C56" s="153"/>
@@ -4730,7 +4680,7 @@
       <c r="AB56" s="7"/>
       <c r="AC56" s="7"/>
     </row>
-    <row r="57" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A57" s="72"/>
       <c r="B57" s="73"/>
       <c r="C57" s="153"/>
@@ -4782,7 +4732,7 @@
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
     </row>
-    <row r="58" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A58" s="72"/>
       <c r="B58" s="73"/>
       <c r="C58" s="153"/>
@@ -4834,7 +4784,7 @@
       <c r="AB58" s="7"/>
       <c r="AC58" s="7"/>
     </row>
-    <row r="59" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A59" s="72"/>
       <c r="B59" s="73"/>
       <c r="C59" s="153"/>
@@ -4886,7 +4836,7 @@
       <c r="AB59" s="7"/>
       <c r="AC59" s="7"/>
     </row>
-    <row r="60" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A60" s="72"/>
       <c r="B60" s="73"/>
       <c r="C60" s="153"/>
@@ -4938,7 +4888,7 @@
       <c r="AB60" s="7"/>
       <c r="AC60" s="7"/>
     </row>
-    <row r="61" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A61" s="72"/>
       <c r="B61" s="73"/>
       <c r="C61" s="153"/>
@@ -4990,7 +4940,7 @@
       <c r="AB61" s="7"/>
       <c r="AC61" s="7"/>
     </row>
-    <row r="62" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A62" s="72"/>
       <c r="B62" s="73"/>
       <c r="C62" s="153"/>
@@ -5042,7 +4992,7 @@
       <c r="AB62" s="7"/>
       <c r="AC62" s="7"/>
     </row>
-    <row r="63" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A63" s="72"/>
       <c r="B63" s="73"/>
       <c r="C63" s="153"/>
@@ -5094,7 +5044,7 @@
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
     </row>
-    <row r="64" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A64" s="72"/>
       <c r="B64" s="73"/>
       <c r="C64" s="153"/>
@@ -5146,7 +5096,7 @@
       <c r="AB64" s="7"/>
       <c r="AC64" s="7"/>
     </row>
-    <row r="65" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A65" s="72"/>
       <c r="B65" s="73"/>
       <c r="C65" s="153"/>
@@ -5198,7 +5148,7 @@
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
     </row>
-    <row r="66" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A66" s="72"/>
       <c r="B66" s="73"/>
       <c r="C66" s="153"/>
@@ -5250,7 +5200,7 @@
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>
     </row>
-    <row r="67" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A67" s="72"/>
       <c r="B67" s="73"/>
       <c r="C67" s="153"/>
@@ -5302,7 +5252,7 @@
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
     </row>
-    <row r="68" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A68" s="72"/>
       <c r="B68" s="73"/>
       <c r="C68" s="153"/>
@@ -5354,7 +5304,7 @@
       <c r="AB68" s="7"/>
       <c r="AC68" s="7"/>
     </row>
-    <row r="69" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A69" s="72"/>
       <c r="B69" s="73"/>
       <c r="C69" s="153"/>
@@ -5406,7 +5356,7 @@
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
     </row>
-    <row r="70" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A70" s="72"/>
       <c r="B70" s="73"/>
       <c r="C70" s="153"/>
@@ -5458,7 +5408,7 @@
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
     </row>
-    <row r="71" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A71" s="72"/>
       <c r="B71" s="73"/>
       <c r="C71" s="153"/>
@@ -5510,7 +5460,7 @@
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
     </row>
-    <row r="72" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A72" s="72"/>
       <c r="B72" s="73"/>
       <c r="C72" s="153"/>
@@ -5562,7 +5512,7 @@
       <c r="AB72" s="7"/>
       <c r="AC72" s="7"/>
     </row>
-    <row r="73" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A73" s="72"/>
       <c r="B73" s="73"/>
       <c r="C73" s="153"/>
@@ -5614,7 +5564,7 @@
       <c r="AB73" s="7"/>
       <c r="AC73" s="7"/>
     </row>
-    <row r="74" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A74" s="72"/>
       <c r="B74" s="73"/>
       <c r="C74" s="153"/>
@@ -5666,7 +5616,7 @@
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
     </row>
-    <row r="75" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A75" s="72"/>
       <c r="B75" s="73"/>
       <c r="C75" s="153"/>
@@ -5718,7 +5668,7 @@
       <c r="AB75" s="7"/>
       <c r="AC75" s="7"/>
     </row>
-    <row r="76" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A76" s="72"/>
       <c r="B76" s="73"/>
       <c r="C76" s="153"/>
@@ -5770,7 +5720,7 @@
       <c r="AB76" s="7"/>
       <c r="AC76" s="7"/>
     </row>
-    <row r="77" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A77" s="72"/>
       <c r="B77" s="73"/>
       <c r="C77" s="153"/>
@@ -5822,7 +5772,7 @@
       <c r="AB77" s="7"/>
       <c r="AC77" s="7"/>
     </row>
-    <row r="78" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A78" s="72"/>
       <c r="B78" s="73"/>
       <c r="C78" s="153"/>
@@ -5874,7 +5824,7 @@
       <c r="AB78" s="7"/>
       <c r="AC78" s="7"/>
     </row>
-    <row r="79" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A79" s="72"/>
       <c r="B79" s="73"/>
       <c r="C79" s="153"/>
@@ -5926,7 +5876,7 @@
       <c r="AB79" s="7"/>
       <c r="AC79" s="7"/>
     </row>
-    <row r="80" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A80" s="72"/>
       <c r="B80" s="73"/>
       <c r="C80" s="153"/>
@@ -5978,7 +5928,7 @@
       <c r="AB80" s="7"/>
       <c r="AC80" s="7"/>
     </row>
-    <row r="81" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A81" s="72"/>
       <c r="B81" s="73"/>
       <c r="C81" s="153"/>
@@ -5998,7 +5948,7 @@
       <c r="Q81" s="76"/>
       <c r="R81" s="77"/>
       <c r="S81" s="77" t="str">
-        <f t="shared" ref="S81:S144" si="8">IF(ISBLANK(C81),"",IF(COUNTA(E81:Q81)=COUNTA(E$12:Q$12),"P","F"))</f>
+        <f t="shared" ref="S81:S144" si="8">IF(ISBLANK(C81),"",IF(COUNTIFS(E$13:Q$13,"100%",E81:Q81,"&lt;&gt;P")=0,"P","F"))</f>
         <v/>
       </c>
       <c r="T81" s="77"/>
@@ -6030,7 +5980,7 @@
       <c r="AB81" s="7"/>
       <c r="AC81" s="7"/>
     </row>
-    <row r="82" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A82" s="72"/>
       <c r="B82" s="73"/>
       <c r="C82" s="153"/>
@@ -6082,7 +6032,7 @@
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
     </row>
-    <row r="83" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A83" s="72"/>
       <c r="B83" s="73"/>
       <c r="C83" s="153"/>
@@ -6134,7 +6084,7 @@
       <c r="AB83" s="7"/>
       <c r="AC83" s="7"/>
     </row>
-    <row r="84" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A84" s="72"/>
       <c r="B84" s="73"/>
       <c r="C84" s="153"/>
@@ -6186,7 +6136,7 @@
       <c r="AB84" s="7"/>
       <c r="AC84" s="7"/>
     </row>
-    <row r="85" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A85" s="72"/>
       <c r="B85" s="73"/>
       <c r="C85" s="153"/>
@@ -6238,7 +6188,7 @@
       <c r="AB85" s="7"/>
       <c r="AC85" s="7"/>
     </row>
-    <row r="86" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A86" s="72"/>
       <c r="B86" s="73"/>
       <c r="C86" s="153"/>
@@ -6290,7 +6240,7 @@
       <c r="AB86" s="7"/>
       <c r="AC86" s="7"/>
     </row>
-    <row r="87" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A87" s="72"/>
       <c r="B87" s="73"/>
       <c r="C87" s="153"/>
@@ -6342,7 +6292,7 @@
       <c r="AB87" s="7"/>
       <c r="AC87" s="7"/>
     </row>
-    <row r="88" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A88" s="72"/>
       <c r="B88" s="73"/>
       <c r="C88" s="153"/>
@@ -6394,7 +6344,7 @@
       <c r="AB88" s="7"/>
       <c r="AC88" s="7"/>
     </row>
-    <row r="89" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A89" s="72"/>
       <c r="B89" s="73"/>
       <c r="C89" s="153"/>
@@ -6446,7 +6396,7 @@
       <c r="AB89" s="7"/>
       <c r="AC89" s="7"/>
     </row>
-    <row r="90" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A90" s="72"/>
       <c r="B90" s="73"/>
       <c r="C90" s="153"/>
@@ -6498,7 +6448,7 @@
       <c r="AB90" s="7"/>
       <c r="AC90" s="7"/>
     </row>
-    <row r="91" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A91" s="72"/>
       <c r="B91" s="73"/>
       <c r="C91" s="153"/>
@@ -6550,7 +6500,7 @@
       <c r="AB91" s="7"/>
       <c r="AC91" s="7"/>
     </row>
-    <row r="92" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A92" s="72"/>
       <c r="B92" s="73"/>
       <c r="C92" s="153"/>
@@ -6602,7 +6552,7 @@
       <c r="AB92" s="7"/>
       <c r="AC92" s="7"/>
     </row>
-    <row r="93" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A93" s="72"/>
       <c r="B93" s="73"/>
       <c r="C93" s="153"/>
@@ -6654,7 +6604,7 @@
       <c r="AB93" s="7"/>
       <c r="AC93" s="7"/>
     </row>
-    <row r="94" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A94" s="72"/>
       <c r="B94" s="73"/>
       <c r="C94" s="153"/>
@@ -6706,7 +6656,7 @@
       <c r="AB94" s="7"/>
       <c r="AC94" s="7"/>
     </row>
-    <row r="95" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A95" s="72"/>
       <c r="B95" s="73"/>
       <c r="C95" s="153"/>
@@ -6758,7 +6708,7 @@
       <c r="AB95" s="7"/>
       <c r="AC95" s="7"/>
     </row>
-    <row r="96" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A96" s="72"/>
       <c r="B96" s="73"/>
       <c r="C96" s="153"/>
@@ -6810,7 +6760,7 @@
       <c r="AB96" s="7"/>
       <c r="AC96" s="7"/>
     </row>
-    <row r="97" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A97" s="72"/>
       <c r="B97" s="73"/>
       <c r="C97" s="153"/>
@@ -6862,7 +6812,7 @@
       <c r="AB97" s="7"/>
       <c r="AC97" s="7"/>
     </row>
-    <row r="98" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A98" s="72"/>
       <c r="B98" s="73"/>
       <c r="C98" s="153"/>
@@ -6914,7 +6864,7 @@
       <c r="AB98" s="7"/>
       <c r="AC98" s="7"/>
     </row>
-    <row r="99" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A99" s="72"/>
       <c r="B99" s="73"/>
       <c r="C99" s="153"/>
@@ -6966,7 +6916,7 @@
       <c r="AB99" s="7"/>
       <c r="AC99" s="7"/>
     </row>
-    <row r="100" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A100" s="72"/>
       <c r="B100" s="73"/>
       <c r="C100" s="153"/>
@@ -7018,7 +6968,7 @@
       <c r="AB100" s="7"/>
       <c r="AC100" s="7"/>
     </row>
-    <row r="101" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A101" s="72"/>
       <c r="B101" s="73"/>
       <c r="C101" s="153"/>
@@ -7070,7 +7020,7 @@
       <c r="AB101" s="7"/>
       <c r="AC101" s="7"/>
     </row>
-    <row r="102" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A102" s="72"/>
       <c r="B102" s="73"/>
       <c r="C102" s="153"/>
@@ -7122,7 +7072,7 @@
       <c r="AB102" s="7"/>
       <c r="AC102" s="7"/>
     </row>
-    <row r="103" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A103" s="72"/>
       <c r="B103" s="73"/>
       <c r="C103" s="153"/>
@@ -7174,7 +7124,7 @@
       <c r="AB103" s="7"/>
       <c r="AC103" s="7"/>
     </row>
-    <row r="104" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A104" s="72"/>
       <c r="B104" s="73"/>
       <c r="C104" s="153"/>
@@ -7226,7 +7176,7 @@
       <c r="AB104" s="7"/>
       <c r="AC104" s="7"/>
     </row>
-    <row r="105" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A105" s="72"/>
       <c r="B105" s="73"/>
       <c r="C105" s="153"/>
@@ -7278,7 +7228,7 @@
       <c r="AB105" s="7"/>
       <c r="AC105" s="7"/>
     </row>
-    <row r="106" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A106" s="72"/>
       <c r="B106" s="73"/>
       <c r="C106" s="153"/>
@@ -7330,7 +7280,7 @@
       <c r="AB106" s="7"/>
       <c r="AC106" s="7"/>
     </row>
-    <row r="107" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A107" s="72"/>
       <c r="B107" s="73"/>
       <c r="C107" s="153"/>
@@ -7382,7 +7332,7 @@
       <c r="AB107" s="7"/>
       <c r="AC107" s="7"/>
     </row>
-    <row r="108" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A108" s="72"/>
       <c r="B108" s="73"/>
       <c r="C108" s="153"/>
@@ -7434,7 +7384,7 @@
       <c r="AB108" s="7"/>
       <c r="AC108" s="7"/>
     </row>
-    <row r="109" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A109" s="72"/>
       <c r="B109" s="73"/>
       <c r="C109" s="153"/>
@@ -7486,7 +7436,7 @@
       <c r="AB109" s="7"/>
       <c r="AC109" s="7"/>
     </row>
-    <row r="110" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A110" s="72"/>
       <c r="B110" s="73"/>
       <c r="C110" s="153"/>
@@ -7538,7 +7488,7 @@
       <c r="AB110" s="7"/>
       <c r="AC110" s="7"/>
     </row>
-    <row r="111" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A111" s="72"/>
       <c r="B111" s="73"/>
       <c r="C111" s="153"/>
@@ -7590,7 +7540,7 @@
       <c r="AB111" s="7"/>
       <c r="AC111" s="7"/>
     </row>
-    <row r="112" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A112" s="72"/>
       <c r="B112" s="73"/>
       <c r="C112" s="153"/>
@@ -7642,7 +7592,7 @@
       <c r="AB112" s="7"/>
       <c r="AC112" s="7"/>
     </row>
-    <row r="113" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A113" s="72"/>
       <c r="B113" s="73"/>
       <c r="C113" s="153"/>
@@ -7694,7 +7644,7 @@
       <c r="AB113" s="7"/>
       <c r="AC113" s="7"/>
     </row>
-    <row r="114" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A114" s="72"/>
       <c r="B114" s="73"/>
       <c r="C114" s="153"/>
@@ -7746,7 +7696,7 @@
       <c r="AB114" s="7"/>
       <c r="AC114" s="7"/>
     </row>
-    <row r="115" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A115" s="72"/>
       <c r="B115" s="73"/>
       <c r="C115" s="153"/>
@@ -7798,7 +7748,7 @@
       <c r="AB115" s="7"/>
       <c r="AC115" s="7"/>
     </row>
-    <row r="116" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A116" s="72"/>
       <c r="B116" s="73"/>
       <c r="C116" s="153"/>
@@ -7850,7 +7800,7 @@
       <c r="AB116" s="7"/>
       <c r="AC116" s="7"/>
     </row>
-    <row r="117" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A117" s="72"/>
       <c r="B117" s="73"/>
       <c r="C117" s="153"/>
@@ -7902,7 +7852,7 @@
       <c r="AB117" s="7"/>
       <c r="AC117" s="7"/>
     </row>
-    <row r="118" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A118" s="72"/>
       <c r="B118" s="73"/>
       <c r="C118" s="153"/>
@@ -7954,7 +7904,7 @@
       <c r="AB118" s="7"/>
       <c r="AC118" s="7"/>
     </row>
-    <row r="119" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A119" s="72"/>
       <c r="B119" s="73"/>
       <c r="C119" s="153"/>
@@ -8006,7 +7956,7 @@
       <c r="AB119" s="7"/>
       <c r="AC119" s="7"/>
     </row>
-    <row r="120" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A120" s="72"/>
       <c r="B120" s="73"/>
       <c r="C120" s="153"/>
@@ -8058,7 +8008,7 @@
       <c r="AB120" s="7"/>
       <c r="AC120" s="7"/>
     </row>
-    <row r="121" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A121" s="72"/>
       <c r="B121" s="73"/>
       <c r="C121" s="153"/>
@@ -8110,7 +8060,7 @@
       <c r="AB121" s="7"/>
       <c r="AC121" s="7"/>
     </row>
-    <row r="122" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A122" s="72"/>
       <c r="B122" s="73"/>
       <c r="C122" s="153"/>
@@ -8162,7 +8112,7 @@
       <c r="AB122" s="7"/>
       <c r="AC122" s="7"/>
     </row>
-    <row r="123" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A123" s="72"/>
       <c r="B123" s="73"/>
       <c r="C123" s="153"/>
@@ -8214,7 +8164,7 @@
       <c r="AB123" s="7"/>
       <c r="AC123" s="7"/>
     </row>
-    <row r="124" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A124" s="72"/>
       <c r="B124" s="73"/>
       <c r="C124" s="153"/>
@@ -8266,7 +8216,7 @@
       <c r="AB124" s="7"/>
       <c r="AC124" s="7"/>
     </row>
-    <row r="125" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A125" s="72"/>
       <c r="B125" s="73"/>
       <c r="C125" s="153"/>
@@ -8318,7 +8268,7 @@
       <c r="AB125" s="7"/>
       <c r="AC125" s="7"/>
     </row>
-    <row r="126" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A126" s="72"/>
       <c r="B126" s="73"/>
       <c r="C126" s="153"/>
@@ -8370,7 +8320,7 @@
       <c r="AB126" s="7"/>
       <c r="AC126" s="7"/>
     </row>
-    <row r="127" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A127" s="72"/>
       <c r="B127" s="73"/>
       <c r="C127" s="153"/>
@@ -8422,7 +8372,7 @@
       <c r="AB127" s="7"/>
       <c r="AC127" s="7"/>
     </row>
-    <row r="128" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A128" s="72"/>
       <c r="B128" s="73"/>
       <c r="C128" s="153"/>
@@ -8474,7 +8424,7 @@
       <c r="AB128" s="7"/>
       <c r="AC128" s="7"/>
     </row>
-    <row r="129" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A129" s="72"/>
       <c r="B129" s="73"/>
       <c r="C129" s="153"/>
@@ -8526,7 +8476,7 @@
       <c r="AB129" s="7"/>
       <c r="AC129" s="7"/>
     </row>
-    <row r="130" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A130" s="72"/>
       <c r="B130" s="73"/>
       <c r="C130" s="153"/>
@@ -8578,7 +8528,7 @@
       <c r="AB130" s="7"/>
       <c r="AC130" s="7"/>
     </row>
-    <row r="131" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A131" s="72"/>
       <c r="B131" s="73"/>
       <c r="C131" s="153"/>
@@ -8630,7 +8580,7 @@
       <c r="AB131" s="7"/>
       <c r="AC131" s="7"/>
     </row>
-    <row r="132" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A132" s="72"/>
       <c r="B132" s="73"/>
       <c r="C132" s="153"/>
@@ -8682,7 +8632,7 @@
       <c r="AB132" s="7"/>
       <c r="AC132" s="7"/>
     </row>
-    <row r="133" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A133" s="72"/>
       <c r="B133" s="73"/>
       <c r="C133" s="153"/>
@@ -8734,7 +8684,7 @@
       <c r="AB133" s="7"/>
       <c r="AC133" s="7"/>
     </row>
-    <row r="134" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A134" s="72"/>
       <c r="B134" s="73"/>
       <c r="C134" s="153"/>
@@ -8786,7 +8736,7 @@
       <c r="AB134" s="7"/>
       <c r="AC134" s="7"/>
     </row>
-    <row r="135" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A135" s="72"/>
       <c r="B135" s="73"/>
       <c r="C135" s="153"/>
@@ -8838,7 +8788,7 @@
       <c r="AB135" s="7"/>
       <c r="AC135" s="7"/>
     </row>
-    <row r="136" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A136" s="72"/>
       <c r="B136" s="73"/>
       <c r="C136" s="153"/>
@@ -8890,7 +8840,7 @@
       <c r="AB136" s="7"/>
       <c r="AC136" s="7"/>
     </row>
-    <row r="137" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A137" s="72"/>
       <c r="B137" s="73"/>
       <c r="C137" s="153"/>
@@ -8942,7 +8892,7 @@
       <c r="AB137" s="7"/>
       <c r="AC137" s="7"/>
     </row>
-    <row r="138" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A138" s="72"/>
       <c r="B138" s="73"/>
       <c r="C138" s="153"/>
@@ -8994,7 +8944,7 @@
       <c r="AB138" s="7"/>
       <c r="AC138" s="7"/>
     </row>
-    <row r="139" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A139" s="72"/>
       <c r="B139" s="73"/>
       <c r="C139" s="153"/>
@@ -9046,7 +8996,7 @@
       <c r="AB139" s="7"/>
       <c r="AC139" s="7"/>
     </row>
-    <row r="140" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A140" s="72"/>
       <c r="B140" s="73"/>
       <c r="C140" s="153"/>
@@ -9098,7 +9048,7 @@
       <c r="AB140" s="7"/>
       <c r="AC140" s="7"/>
     </row>
-    <row r="141" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A141" s="72"/>
       <c r="B141" s="73"/>
       <c r="C141" s="153"/>
@@ -9150,7 +9100,7 @@
       <c r="AB141" s="7"/>
       <c r="AC141" s="7"/>
     </row>
-    <row r="142" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A142" s="72"/>
       <c r="B142" s="73"/>
       <c r="C142" s="153"/>
@@ -9202,7 +9152,7 @@
       <c r="AB142" s="7"/>
       <c r="AC142" s="7"/>
     </row>
-    <row r="143" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A143" s="72"/>
       <c r="B143" s="73"/>
       <c r="C143" s="153"/>
@@ -9254,7 +9204,7 @@
       <c r="AB143" s="7"/>
       <c r="AC143" s="7"/>
     </row>
-    <row r="144" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A144" s="72"/>
       <c r="B144" s="73"/>
       <c r="C144" s="153"/>
@@ -9306,7 +9256,7 @@
       <c r="AB144" s="7"/>
       <c r="AC144" s="7"/>
     </row>
-    <row r="145" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A145" s="72"/>
       <c r="B145" s="73"/>
       <c r="C145" s="153"/>
@@ -9326,7 +9276,7 @@
       <c r="Q145" s="76"/>
       <c r="R145" s="77"/>
       <c r="S145" s="77" t="str">
-        <f t="shared" ref="S145:S208" si="15">IF(ISBLANK(C145),"",IF(COUNTA(E145:Q145)=COUNTA(E$12:Q$12),"P","F"))</f>
+        <f t="shared" ref="S145:S208" si="15">IF(ISBLANK(C145),"",IF(COUNTIFS(E$13:Q$13,"100%",E145:Q145,"&lt;&gt;P")=0,"P","F"))</f>
         <v/>
       </c>
       <c r="T145" s="77"/>
@@ -9358,7 +9308,7 @@
       <c r="AB145" s="7"/>
       <c r="AC145" s="7"/>
     </row>
-    <row r="146" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A146" s="72"/>
       <c r="B146" s="73"/>
       <c r="C146" s="153"/>
@@ -9410,7 +9360,7 @@
       <c r="AB146" s="7"/>
       <c r="AC146" s="7"/>
     </row>
-    <row r="147" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A147" s="72"/>
       <c r="B147" s="73"/>
       <c r="C147" s="153"/>
@@ -9462,7 +9412,7 @@
       <c r="AB147" s="7"/>
       <c r="AC147" s="7"/>
     </row>
-    <row r="148" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A148" s="72"/>
       <c r="B148" s="73"/>
       <c r="C148" s="153"/>
@@ -9514,7 +9464,7 @@
       <c r="AB148" s="7"/>
       <c r="AC148" s="7"/>
     </row>
-    <row r="149" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A149" s="72"/>
       <c r="B149" s="73"/>
       <c r="C149" s="153"/>
@@ -9566,7 +9516,7 @@
       <c r="AB149" s="7"/>
       <c r="AC149" s="7"/>
     </row>
-    <row r="150" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A150" s="72"/>
       <c r="B150" s="73"/>
       <c r="C150" s="153"/>
@@ -9618,7 +9568,7 @@
       <c r="AB150" s="7"/>
       <c r="AC150" s="7"/>
     </row>
-    <row r="151" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A151" s="72"/>
       <c r="B151" s="73"/>
       <c r="C151" s="153"/>
@@ -9670,7 +9620,7 @@
       <c r="AB151" s="7"/>
       <c r="AC151" s="7"/>
     </row>
-    <row r="152" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A152" s="72"/>
       <c r="B152" s="73"/>
       <c r="C152" s="153"/>
@@ -9722,7 +9672,7 @@
       <c r="AB152" s="7"/>
       <c r="AC152" s="7"/>
     </row>
-    <row r="153" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A153" s="72"/>
       <c r="B153" s="73"/>
       <c r="C153" s="153"/>
@@ -9774,7 +9724,7 @@
       <c r="AB153" s="7"/>
       <c r="AC153" s="7"/>
     </row>
-    <row r="154" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A154" s="72"/>
       <c r="B154" s="73"/>
       <c r="C154" s="153"/>
@@ -9826,7 +9776,7 @@
       <c r="AB154" s="7"/>
       <c r="AC154" s="7"/>
     </row>
-    <row r="155" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A155" s="72"/>
       <c r="B155" s="73"/>
       <c r="C155" s="153"/>
@@ -9878,7 +9828,7 @@
       <c r="AB155" s="7"/>
       <c r="AC155" s="7"/>
     </row>
-    <row r="156" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A156" s="72"/>
       <c r="B156" s="73"/>
       <c r="C156" s="153"/>
@@ -9930,7 +9880,7 @@
       <c r="AB156" s="7"/>
       <c r="AC156" s="7"/>
     </row>
-    <row r="157" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A157" s="72"/>
       <c r="B157" s="73"/>
       <c r="C157" s="153"/>
@@ -9982,7 +9932,7 @@
       <c r="AB157" s="7"/>
       <c r="AC157" s="7"/>
     </row>
-    <row r="158" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A158" s="72"/>
       <c r="B158" s="73"/>
       <c r="C158" s="153"/>
@@ -10034,7 +9984,7 @@
       <c r="AB158" s="7"/>
       <c r="AC158" s="7"/>
     </row>
-    <row r="159" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A159" s="72"/>
       <c r="B159" s="73"/>
       <c r="C159" s="153"/>
@@ -10086,7 +10036,7 @@
       <c r="AB159" s="7"/>
       <c r="AC159" s="7"/>
     </row>
-    <row r="160" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A160" s="72"/>
       <c r="B160" s="73"/>
       <c r="C160" s="153"/>
@@ -10138,7 +10088,7 @@
       <c r="AB160" s="7"/>
       <c r="AC160" s="7"/>
     </row>
-    <row r="161" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A161" s="72"/>
       <c r="B161" s="73"/>
       <c r="C161" s="153"/>
@@ -10190,7 +10140,7 @@
       <c r="AB161" s="7"/>
       <c r="AC161" s="7"/>
     </row>
-    <row r="162" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A162" s="72"/>
       <c r="B162" s="73"/>
       <c r="C162" s="153"/>
@@ -10242,7 +10192,7 @@
       <c r="AB162" s="7"/>
       <c r="AC162" s="7"/>
     </row>
-    <row r="163" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A163" s="72"/>
       <c r="B163" s="73"/>
       <c r="C163" s="153"/>
@@ -10294,7 +10244,7 @@
       <c r="AB163" s="7"/>
       <c r="AC163" s="7"/>
     </row>
-    <row r="164" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A164" s="72"/>
       <c r="B164" s="73"/>
       <c r="C164" s="153"/>
@@ -10346,7 +10296,7 @@
       <c r="AB164" s="7"/>
       <c r="AC164" s="7"/>
     </row>
-    <row r="165" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A165" s="72"/>
       <c r="B165" s="73"/>
       <c r="C165" s="153"/>
@@ -10398,7 +10348,7 @@
       <c r="AB165" s="7"/>
       <c r="AC165" s="7"/>
     </row>
-    <row r="166" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A166" s="72"/>
       <c r="B166" s="73"/>
       <c r="C166" s="153"/>
@@ -10450,7 +10400,7 @@
       <c r="AB166" s="7"/>
       <c r="AC166" s="7"/>
     </row>
-    <row r="167" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A167" s="72"/>
       <c r="B167" s="73"/>
       <c r="C167" s="153"/>
@@ -10502,7 +10452,7 @@
       <c r="AB167" s="7"/>
       <c r="AC167" s="7"/>
     </row>
-    <row r="168" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A168" s="72"/>
       <c r="B168" s="73"/>
       <c r="C168" s="153"/>
@@ -10554,7 +10504,7 @@
       <c r="AB168" s="7"/>
       <c r="AC168" s="7"/>
     </row>
-    <row r="169" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A169" s="72"/>
       <c r="B169" s="73"/>
       <c r="C169" s="153"/>
@@ -10606,7 +10556,7 @@
       <c r="AB169" s="7"/>
       <c r="AC169" s="7"/>
     </row>
-    <row r="170" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A170" s="72"/>
       <c r="B170" s="73"/>
       <c r="C170" s="153"/>
@@ -10658,7 +10608,7 @@
       <c r="AB170" s="7"/>
       <c r="AC170" s="7"/>
     </row>
-    <row r="171" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A171" s="72"/>
       <c r="B171" s="73"/>
       <c r="C171" s="153"/>
@@ -10710,7 +10660,7 @@
       <c r="AB171" s="7"/>
       <c r="AC171" s="7"/>
     </row>
-    <row r="172" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A172" s="72"/>
       <c r="B172" s="73"/>
       <c r="C172" s="153"/>
@@ -10762,7 +10712,7 @@
       <c r="AB172" s="7"/>
       <c r="AC172" s="7"/>
     </row>
-    <row r="173" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A173" s="72"/>
       <c r="B173" s="73"/>
       <c r="C173" s="153"/>
@@ -10814,7 +10764,7 @@
       <c r="AB173" s="7"/>
       <c r="AC173" s="7"/>
     </row>
-    <row r="174" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A174" s="72"/>
       <c r="B174" s="73"/>
       <c r="C174" s="153"/>
@@ -10866,7 +10816,7 @@
       <c r="AB174" s="7"/>
       <c r="AC174" s="7"/>
     </row>
-    <row r="175" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A175" s="72"/>
       <c r="B175" s="73"/>
       <c r="C175" s="153"/>
@@ -10918,7 +10868,7 @@
       <c r="AB175" s="7"/>
       <c r="AC175" s="7"/>
     </row>
-    <row r="176" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A176" s="72"/>
       <c r="B176" s="73"/>
       <c r="C176" s="153"/>
@@ -10970,7 +10920,7 @@
       <c r="AB176" s="7"/>
       <c r="AC176" s="7"/>
     </row>
-    <row r="177" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A177" s="72"/>
       <c r="B177" s="73"/>
       <c r="C177" s="153"/>
@@ -11022,7 +10972,7 @@
       <c r="AB177" s="7"/>
       <c r="AC177" s="7"/>
     </row>
-    <row r="178" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A178" s="72"/>
       <c r="B178" s="73"/>
       <c r="C178" s="153"/>
@@ -11074,7 +11024,7 @@
       <c r="AB178" s="7"/>
       <c r="AC178" s="7"/>
     </row>
-    <row r="179" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A179" s="72"/>
       <c r="B179" s="73"/>
       <c r="C179" s="153"/>
@@ -11126,7 +11076,7 @@
       <c r="AB179" s="7"/>
       <c r="AC179" s="7"/>
     </row>
-    <row r="180" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A180" s="72"/>
       <c r="B180" s="73"/>
       <c r="C180" s="153"/>
@@ -11178,7 +11128,7 @@
       <c r="AB180" s="7"/>
       <c r="AC180" s="7"/>
     </row>
-    <row r="181" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A181" s="72"/>
       <c r="B181" s="73"/>
       <c r="C181" s="153"/>
@@ -11230,7 +11180,7 @@
       <c r="AB181" s="7"/>
       <c r="AC181" s="7"/>
     </row>
-    <row r="182" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A182" s="72"/>
       <c r="B182" s="73"/>
       <c r="C182" s="153"/>
@@ -11282,7 +11232,7 @@
       <c r="AB182" s="7"/>
       <c r="AC182" s="7"/>
     </row>
-    <row r="183" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A183" s="72"/>
       <c r="B183" s="73"/>
       <c r="C183" s="153"/>
@@ -11334,7 +11284,7 @@
       <c r="AB183" s="7"/>
       <c r="AC183" s="7"/>
     </row>
-    <row r="184" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A184" s="72"/>
       <c r="B184" s="73"/>
       <c r="C184" s="153"/>
@@ -11386,7 +11336,7 @@
       <c r="AB184" s="7"/>
       <c r="AC184" s="7"/>
     </row>
-    <row r="185" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A185" s="72"/>
       <c r="B185" s="73"/>
       <c r="C185" s="153"/>
@@ -11438,7 +11388,7 @@
       <c r="AB185" s="7"/>
       <c r="AC185" s="7"/>
     </row>
-    <row r="186" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A186" s="72"/>
       <c r="B186" s="73"/>
       <c r="C186" s="153"/>
@@ -11490,7 +11440,7 @@
       <c r="AB186" s="7"/>
       <c r="AC186" s="7"/>
     </row>
-    <row r="187" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A187" s="72"/>
       <c r="B187" s="73"/>
       <c r="C187" s="153"/>
@@ -11542,7 +11492,7 @@
       <c r="AB187" s="7"/>
       <c r="AC187" s="7"/>
     </row>
-    <row r="188" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A188" s="72"/>
       <c r="B188" s="73"/>
       <c r="C188" s="153"/>
@@ -11594,7 +11544,7 @@
       <c r="AB188" s="7"/>
       <c r="AC188" s="7"/>
     </row>
-    <row r="189" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A189" s="72"/>
       <c r="B189" s="73"/>
       <c r="C189" s="153"/>
@@ -11646,7 +11596,7 @@
       <c r="AB189" s="7"/>
       <c r="AC189" s="7"/>
     </row>
-    <row r="190" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A190" s="72"/>
       <c r="B190" s="73"/>
       <c r="C190" s="153"/>
@@ -11698,7 +11648,7 @@
       <c r="AB190" s="7"/>
       <c r="AC190" s="7"/>
     </row>
-    <row r="191" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A191" s="72"/>
       <c r="B191" s="73"/>
       <c r="C191" s="153"/>
@@ -11750,7 +11700,7 @@
       <c r="AB191" s="7"/>
       <c r="AC191" s="7"/>
     </row>
-    <row r="192" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A192" s="72"/>
       <c r="B192" s="73"/>
       <c r="C192" s="153"/>
@@ -11802,7 +11752,7 @@
       <c r="AB192" s="7"/>
       <c r="AC192" s="7"/>
     </row>
-    <row r="193" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A193" s="72"/>
       <c r="B193" s="73"/>
       <c r="C193" s="153"/>
@@ -11854,7 +11804,7 @@
       <c r="AB193" s="7"/>
       <c r="AC193" s="7"/>
     </row>
-    <row r="194" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A194" s="72"/>
       <c r="B194" s="73"/>
       <c r="C194" s="153"/>
@@ -11906,7 +11856,7 @@
       <c r="AB194" s="7"/>
       <c r="AC194" s="7"/>
     </row>
-    <row r="195" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A195" s="72"/>
       <c r="B195" s="73"/>
       <c r="C195" s="153"/>
@@ -11958,7 +11908,7 @@
       <c r="AB195" s="7"/>
       <c r="AC195" s="7"/>
     </row>
-    <row r="196" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A196" s="72"/>
       <c r="B196" s="73"/>
       <c r="C196" s="153"/>
@@ -12010,7 +11960,7 @@
       <c r="AB196" s="7"/>
       <c r="AC196" s="7"/>
     </row>
-    <row r="197" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A197" s="72"/>
       <c r="B197" s="73"/>
       <c r="C197" s="153"/>
@@ -12062,7 +12012,7 @@
       <c r="AB197" s="7"/>
       <c r="AC197" s="7"/>
     </row>
-    <row r="198" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A198" s="72"/>
       <c r="B198" s="73"/>
       <c r="C198" s="153"/>
@@ -12114,7 +12064,7 @@
       <c r="AB198" s="7"/>
       <c r="AC198" s="7"/>
     </row>
-    <row r="199" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A199" s="72"/>
       <c r="B199" s="73"/>
       <c r="C199" s="153"/>
@@ -12166,7 +12116,7 @@
       <c r="AB199" s="7"/>
       <c r="AC199" s="7"/>
     </row>
-    <row r="200" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A200" s="72"/>
       <c r="B200" s="73"/>
       <c r="C200" s="153"/>
@@ -12218,7 +12168,7 @@
       <c r="AB200" s="7"/>
       <c r="AC200" s="7"/>
     </row>
-    <row r="201" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A201" s="72"/>
       <c r="B201" s="73"/>
       <c r="C201" s="153"/>
@@ -12270,7 +12220,7 @@
       <c r="AB201" s="7"/>
       <c r="AC201" s="7"/>
     </row>
-    <row r="202" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A202" s="72"/>
       <c r="B202" s="73"/>
       <c r="C202" s="153"/>
@@ -12322,7 +12272,7 @@
       <c r="AB202" s="7"/>
       <c r="AC202" s="7"/>
     </row>
-    <row r="203" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A203" s="72"/>
       <c r="B203" s="73"/>
       <c r="C203" s="153"/>
@@ -12374,7 +12324,7 @@
       <c r="AB203" s="7"/>
       <c r="AC203" s="7"/>
     </row>
-    <row r="204" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A204" s="72"/>
       <c r="B204" s="73"/>
       <c r="C204" s="153"/>
@@ -12426,7 +12376,7 @@
       <c r="AB204" s="7"/>
       <c r="AC204" s="7"/>
     </row>
-    <row r="205" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A205" s="72"/>
       <c r="B205" s="73"/>
       <c r="C205" s="153"/>
@@ -12478,7 +12428,7 @@
       <c r="AB205" s="7"/>
       <c r="AC205" s="7"/>
     </row>
-    <row r="206" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A206" s="72"/>
       <c r="B206" s="73"/>
       <c r="C206" s="153"/>
@@ -12530,7 +12480,7 @@
       <c r="AB206" s="7"/>
       <c r="AC206" s="7"/>
     </row>
-    <row r="207" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A207" s="72"/>
       <c r="B207" s="73"/>
       <c r="C207" s="153"/>
@@ -12582,7 +12532,7 @@
       <c r="AB207" s="7"/>
       <c r="AC207" s="7"/>
     </row>
-    <row r="208" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A208" s="72"/>
       <c r="B208" s="73"/>
       <c r="C208" s="153"/>
@@ -12634,7 +12584,7 @@
       <c r="AB208" s="7"/>
       <c r="AC208" s="7"/>
     </row>
-    <row r="209" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A209" s="72"/>
       <c r="B209" s="73"/>
       <c r="C209" s="153"/>
@@ -12654,7 +12604,7 @@
       <c r="Q209" s="76"/>
       <c r="R209" s="77"/>
       <c r="S209" s="77" t="str">
-        <f t="shared" ref="S209:S272" si="22">IF(ISBLANK(C209),"",IF(COUNTA(E209:Q209)=COUNTA(E$12:Q$12),"P","F"))</f>
+        <f t="shared" ref="S209:S272" si="22">IF(ISBLANK(C209),"",IF(COUNTIFS(E$13:Q$13,"100%",E209:Q209,"&lt;&gt;P")=0,"P","F"))</f>
         <v/>
       </c>
       <c r="T209" s="77"/>
@@ -12686,7 +12636,7 @@
       <c r="AB209" s="7"/>
       <c r="AC209" s="7"/>
     </row>
-    <row r="210" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A210" s="72"/>
       <c r="B210" s="73"/>
       <c r="C210" s="153"/>
@@ -12738,7 +12688,7 @@
       <c r="AB210" s="7"/>
       <c r="AC210" s="7"/>
     </row>
-    <row r="211" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A211" s="72"/>
       <c r="B211" s="73"/>
       <c r="C211" s="153"/>
@@ -12790,7 +12740,7 @@
       <c r="AB211" s="7"/>
       <c r="AC211" s="7"/>
     </row>
-    <row r="212" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A212" s="72"/>
       <c r="B212" s="73"/>
       <c r="C212" s="153"/>
@@ -12842,7 +12792,7 @@
       <c r="AB212" s="7"/>
       <c r="AC212" s="7"/>
     </row>
-    <row r="213" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A213" s="72"/>
       <c r="B213" s="73"/>
       <c r="C213" s="153"/>
@@ -12894,7 +12844,7 @@
       <c r="AB213" s="7"/>
       <c r="AC213" s="7"/>
     </row>
-    <row r="214" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A214" s="72"/>
       <c r="B214" s="73"/>
       <c r="C214" s="153"/>
@@ -12946,7 +12896,7 @@
       <c r="AB214" s="7"/>
       <c r="AC214" s="7"/>
     </row>
-    <row r="215" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A215" s="72"/>
       <c r="B215" s="73"/>
       <c r="C215" s="153"/>
@@ -12998,7 +12948,7 @@
       <c r="AB215" s="7"/>
       <c r="AC215" s="7"/>
     </row>
-    <row r="216" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A216" s="72"/>
       <c r="B216" s="73"/>
       <c r="C216" s="153"/>
@@ -13050,7 +13000,7 @@
       <c r="AB216" s="7"/>
       <c r="AC216" s="7"/>
     </row>
-    <row r="217" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A217" s="72"/>
       <c r="B217" s="73"/>
       <c r="C217" s="153"/>
@@ -13102,7 +13052,7 @@
       <c r="AB217" s="7"/>
       <c r="AC217" s="7"/>
     </row>
-    <row r="218" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A218" s="72"/>
       <c r="B218" s="73"/>
       <c r="C218" s="153"/>
@@ -13154,7 +13104,7 @@
       <c r="AB218" s="7"/>
       <c r="AC218" s="7"/>
     </row>
-    <row r="219" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A219" s="72"/>
       <c r="B219" s="73"/>
       <c r="C219" s="153"/>
@@ -13206,7 +13156,7 @@
       <c r="AB219" s="7"/>
       <c r="AC219" s="7"/>
     </row>
-    <row r="220" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A220" s="72"/>
       <c r="B220" s="73"/>
       <c r="C220" s="153"/>
@@ -13258,7 +13208,7 @@
       <c r="AB220" s="7"/>
       <c r="AC220" s="7"/>
     </row>
-    <row r="221" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A221" s="72"/>
       <c r="B221" s="73"/>
       <c r="C221" s="153"/>
@@ -13310,7 +13260,7 @@
       <c r="AB221" s="7"/>
       <c r="AC221" s="7"/>
     </row>
-    <row r="222" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A222" s="72"/>
       <c r="B222" s="73"/>
       <c r="C222" s="153"/>
@@ -13362,7 +13312,7 @@
       <c r="AB222" s="7"/>
       <c r="AC222" s="7"/>
     </row>
-    <row r="223" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A223" s="72"/>
       <c r="B223" s="73"/>
       <c r="C223" s="153"/>
@@ -13414,7 +13364,7 @@
       <c r="AB223" s="7"/>
       <c r="AC223" s="7"/>
     </row>
-    <row r="224" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A224" s="72"/>
       <c r="B224" s="73"/>
       <c r="C224" s="153"/>
@@ -13466,7 +13416,7 @@
       <c r="AB224" s="7"/>
       <c r="AC224" s="7"/>
     </row>
-    <row r="225" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A225" s="72"/>
       <c r="B225" s="73"/>
       <c r="C225" s="153"/>
@@ -13518,7 +13468,7 @@
       <c r="AB225" s="7"/>
       <c r="AC225" s="7"/>
     </row>
-    <row r="226" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A226" s="72"/>
       <c r="B226" s="73"/>
       <c r="C226" s="153"/>
@@ -13570,7 +13520,7 @@
       <c r="AB226" s="7"/>
       <c r="AC226" s="7"/>
     </row>
-    <row r="227" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A227" s="72"/>
       <c r="B227" s="73"/>
       <c r="C227" s="153"/>
@@ -13622,7 +13572,7 @@
       <c r="AB227" s="7"/>
       <c r="AC227" s="7"/>
     </row>
-    <row r="228" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A228" s="72"/>
       <c r="B228" s="73"/>
       <c r="C228" s="153"/>
@@ -13674,7 +13624,7 @@
       <c r="AB228" s="7"/>
       <c r="AC228" s="7"/>
     </row>
-    <row r="229" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A229" s="72"/>
       <c r="B229" s="73"/>
       <c r="C229" s="153"/>
@@ -13726,7 +13676,7 @@
       <c r="AB229" s="7"/>
       <c r="AC229" s="7"/>
     </row>
-    <row r="230" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A230" s="72"/>
       <c r="B230" s="73"/>
       <c r="C230" s="153"/>
@@ -13778,7 +13728,7 @@
       <c r="AB230" s="7"/>
       <c r="AC230" s="7"/>
     </row>
-    <row r="231" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A231" s="72"/>
       <c r="B231" s="73"/>
       <c r="C231" s="153"/>
@@ -13830,7 +13780,7 @@
       <c r="AB231" s="7"/>
       <c r="AC231" s="7"/>
     </row>
-    <row r="232" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A232" s="72"/>
       <c r="B232" s="73"/>
       <c r="C232" s="153"/>
@@ -13882,7 +13832,7 @@
       <c r="AB232" s="7"/>
       <c r="AC232" s="7"/>
     </row>
-    <row r="233" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A233" s="72"/>
       <c r="B233" s="73"/>
       <c r="C233" s="153"/>
@@ -13934,7 +13884,7 @@
       <c r="AB233" s="7"/>
       <c r="AC233" s="7"/>
     </row>
-    <row r="234" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A234" s="72"/>
       <c r="B234" s="73"/>
       <c r="C234" s="153"/>
@@ -13986,7 +13936,7 @@
       <c r="AB234" s="7"/>
       <c r="AC234" s="7"/>
     </row>
-    <row r="235" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A235" s="72"/>
       <c r="B235" s="73"/>
       <c r="C235" s="153"/>
@@ -14038,7 +13988,7 @@
       <c r="AB235" s="7"/>
       <c r="AC235" s="7"/>
     </row>
-    <row r="236" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A236" s="72"/>
       <c r="B236" s="73"/>
       <c r="C236" s="153"/>
@@ -14090,7 +14040,7 @@
       <c r="AB236" s="7"/>
       <c r="AC236" s="7"/>
     </row>
-    <row r="237" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A237" s="72"/>
       <c r="B237" s="73"/>
       <c r="C237" s="153"/>
@@ -14142,7 +14092,7 @@
       <c r="AB237" s="7"/>
       <c r="AC237" s="7"/>
     </row>
-    <row r="238" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A238" s="72"/>
       <c r="B238" s="73"/>
       <c r="C238" s="153"/>
@@ -14194,7 +14144,7 @@
       <c r="AB238" s="7"/>
       <c r="AC238" s="7"/>
     </row>
-    <row r="239" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A239" s="72"/>
       <c r="B239" s="73"/>
       <c r="C239" s="153"/>
@@ -14246,7 +14196,7 @@
       <c r="AB239" s="7"/>
       <c r="AC239" s="7"/>
     </row>
-    <row r="240" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A240" s="72"/>
       <c r="B240" s="73"/>
       <c r="C240" s="153"/>
@@ -14298,7 +14248,7 @@
       <c r="AB240" s="7"/>
       <c r="AC240" s="7"/>
     </row>
-    <row r="241" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A241" s="72"/>
       <c r="B241" s="73"/>
       <c r="C241" s="153"/>
@@ -14350,7 +14300,7 @@
       <c r="AB241" s="7"/>
       <c r="AC241" s="7"/>
     </row>
-    <row r="242" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A242" s="72"/>
       <c r="B242" s="73"/>
       <c r="C242" s="153"/>
@@ -14402,7 +14352,7 @@
       <c r="AB242" s="7"/>
       <c r="AC242" s="7"/>
     </row>
-    <row r="243" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A243" s="72"/>
       <c r="B243" s="73"/>
       <c r="C243" s="153"/>
@@ -14454,7 +14404,7 @@
       <c r="AB243" s="7"/>
       <c r="AC243" s="7"/>
     </row>
-    <row r="244" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A244" s="72"/>
       <c r="B244" s="73"/>
       <c r="C244" s="153"/>
@@ -14506,7 +14456,7 @@
       <c r="AB244" s="7"/>
       <c r="AC244" s="7"/>
     </row>
-    <row r="245" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A245" s="72"/>
       <c r="B245" s="73"/>
       <c r="C245" s="153"/>
@@ -14558,7 +14508,7 @@
       <c r="AB245" s="7"/>
       <c r="AC245" s="7"/>
     </row>
-    <row r="246" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A246" s="72"/>
       <c r="B246" s="73"/>
       <c r="C246" s="153"/>
@@ -14610,7 +14560,7 @@
       <c r="AB246" s="7"/>
       <c r="AC246" s="7"/>
     </row>
-    <row r="247" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A247" s="72"/>
       <c r="B247" s="73"/>
       <c r="C247" s="153"/>
@@ -14662,7 +14612,7 @@
       <c r="AB247" s="7"/>
       <c r="AC247" s="7"/>
     </row>
-    <row r="248" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A248" s="72"/>
       <c r="B248" s="73"/>
       <c r="C248" s="153"/>
@@ -14714,7 +14664,7 @@
       <c r="AB248" s="7"/>
       <c r="AC248" s="7"/>
     </row>
-    <row r="249" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A249" s="72"/>
       <c r="B249" s="73"/>
       <c r="C249" s="153"/>
@@ -14766,7 +14716,7 @@
       <c r="AB249" s="7"/>
       <c r="AC249" s="7"/>
     </row>
-    <row r="250" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A250" s="72"/>
       <c r="B250" s="73"/>
       <c r="C250" s="153"/>
@@ -14818,7 +14768,7 @@
       <c r="AB250" s="7"/>
       <c r="AC250" s="7"/>
     </row>
-    <row r="251" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A251" s="72"/>
       <c r="B251" s="73"/>
       <c r="C251" s="153"/>
@@ -14870,7 +14820,7 @@
       <c r="AB251" s="7"/>
       <c r="AC251" s="7"/>
     </row>
-    <row r="252" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A252" s="72"/>
       <c r="B252" s="73"/>
       <c r="C252" s="153"/>
@@ -14922,7 +14872,7 @@
       <c r="AB252" s="7"/>
       <c r="AC252" s="7"/>
     </row>
-    <row r="253" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A253" s="72"/>
       <c r="B253" s="73"/>
       <c r="C253" s="153"/>
@@ -14974,7 +14924,7 @@
       <c r="AB253" s="7"/>
       <c r="AC253" s="7"/>
     </row>
-    <row r="254" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A254" s="72"/>
       <c r="B254" s="73"/>
       <c r="C254" s="153"/>
@@ -15026,7 +14976,7 @@
       <c r="AB254" s="7"/>
       <c r="AC254" s="7"/>
     </row>
-    <row r="255" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A255" s="72"/>
       <c r="B255" s="73"/>
       <c r="C255" s="153"/>
@@ -15078,7 +15028,7 @@
       <c r="AB255" s="7"/>
       <c r="AC255" s="7"/>
     </row>
-    <row r="256" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A256" s="72"/>
       <c r="B256" s="73"/>
       <c r="C256" s="153"/>
@@ -15130,7 +15080,7 @@
       <c r="AB256" s="7"/>
       <c r="AC256" s="7"/>
     </row>
-    <row r="257" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A257" s="72"/>
       <c r="B257" s="73"/>
       <c r="C257" s="153"/>
@@ -15182,7 +15132,7 @@
       <c r="AB257" s="7"/>
       <c r="AC257" s="7"/>
     </row>
-    <row r="258" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A258" s="72"/>
       <c r="B258" s="73"/>
       <c r="C258" s="153"/>
@@ -15234,7 +15184,7 @@
       <c r="AB258" s="7"/>
       <c r="AC258" s="7"/>
     </row>
-    <row r="259" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A259" s="72"/>
       <c r="B259" s="73"/>
       <c r="C259" s="153"/>
@@ -15286,7 +15236,7 @@
       <c r="AB259" s="7"/>
       <c r="AC259" s="7"/>
     </row>
-    <row r="260" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A260" s="72"/>
       <c r="B260" s="73"/>
       <c r="C260" s="153"/>
@@ -15338,7 +15288,7 @@
       <c r="AB260" s="7"/>
       <c r="AC260" s="7"/>
     </row>
-    <row r="261" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A261" s="72"/>
       <c r="B261" s="73"/>
       <c r="C261" s="153"/>
@@ -15390,7 +15340,7 @@
       <c r="AB261" s="7"/>
       <c r="AC261" s="7"/>
     </row>
-    <row r="262" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A262" s="72"/>
       <c r="B262" s="73"/>
       <c r="C262" s="153"/>
@@ -15442,7 +15392,7 @@
       <c r="AB262" s="7"/>
       <c r="AC262" s="7"/>
     </row>
-    <row r="263" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A263" s="72"/>
       <c r="B263" s="73"/>
       <c r="C263" s="153"/>
@@ -15494,7 +15444,7 @@
       <c r="AB263" s="7"/>
       <c r="AC263" s="7"/>
     </row>
-    <row r="264" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A264" s="72"/>
       <c r="B264" s="73"/>
       <c r="C264" s="153"/>
@@ -15546,7 +15496,7 @@
       <c r="AB264" s="7"/>
       <c r="AC264" s="7"/>
     </row>
-    <row r="265" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A265" s="72"/>
       <c r="B265" s="73"/>
       <c r="C265" s="153"/>
@@ -15598,7 +15548,7 @@
       <c r="AB265" s="7"/>
       <c r="AC265" s="7"/>
     </row>
-    <row r="266" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A266" s="72"/>
       <c r="B266" s="73"/>
       <c r="C266" s="153"/>
@@ -15650,7 +15600,7 @@
       <c r="AB266" s="7"/>
       <c r="AC266" s="7"/>
     </row>
-    <row r="267" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A267" s="72"/>
       <c r="B267" s="73"/>
       <c r="C267" s="153"/>
@@ -15702,7 +15652,7 @@
       <c r="AB267" s="7"/>
       <c r="AC267" s="7"/>
     </row>
-    <row r="268" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A268" s="72"/>
       <c r="B268" s="73"/>
       <c r="C268" s="153"/>
@@ -15754,7 +15704,7 @@
       <c r="AB268" s="7"/>
       <c r="AC268" s="7"/>
     </row>
-    <row r="269" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A269" s="72"/>
       <c r="B269" s="73"/>
       <c r="C269" s="153"/>
@@ -15806,7 +15756,7 @@
       <c r="AB269" s="7"/>
       <c r="AC269" s="7"/>
     </row>
-    <row r="270" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A270" s="72"/>
       <c r="B270" s="73"/>
       <c r="C270" s="153"/>
@@ -15858,7 +15808,7 @@
       <c r="AB270" s="7"/>
       <c r="AC270" s="7"/>
     </row>
-    <row r="271" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A271" s="72"/>
       <c r="B271" s="73"/>
       <c r="C271" s="153"/>
@@ -15910,7 +15860,7 @@
       <c r="AB271" s="7"/>
       <c r="AC271" s="7"/>
     </row>
-    <row r="272" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="72"/>
       <c r="B272" s="73"/>
       <c r="C272" s="153"/>
@@ -15962,7 +15912,7 @@
       <c r="AB272" s="7"/>
       <c r="AC272" s="7"/>
     </row>
-    <row r="273" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="72"/>
       <c r="B273" s="73"/>
       <c r="C273" s="153"/>
@@ -15982,7 +15932,7 @@
       <c r="Q273" s="76"/>
       <c r="R273" s="77"/>
       <c r="S273" s="77" t="str">
-        <f t="shared" ref="S273:S281" si="29">IF(ISBLANK(C273),"",IF(COUNTA(E273:Q273)=COUNTA(E$12:Q$12),"P","F"))</f>
+        <f t="shared" ref="S273:S281" si="29">IF(ISBLANK(C273),"",IF(COUNTIFS(E$13:Q$13,"100%",E273:Q273,"&lt;&gt;P")=0,"P","F"))</f>
         <v/>
       </c>
       <c r="T273" s="77"/>
@@ -16014,7 +15964,7 @@
       <c r="AB273" s="7"/>
       <c r="AC273" s="7"/>
     </row>
-    <row r="274" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="72"/>
       <c r="B274" s="73"/>
       <c r="C274" s="153"/>
@@ -16066,7 +16016,7 @@
       <c r="AB274" s="7"/>
       <c r="AC274" s="7"/>
     </row>
-    <row r="275" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="72"/>
       <c r="B275" s="73"/>
       <c r="C275" s="153"/>
@@ -16118,7 +16068,7 @@
       <c r="AB275" s="7"/>
       <c r="AC275" s="7"/>
     </row>
-    <row r="276" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:32" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A276" s="78"/>
       <c r="B276" s="79"/>
       <c r="C276" s="154"/>
@@ -16170,7 +16120,7 @@
       <c r="AB276" s="7"/>
       <c r="AC276" s="7"/>
     </row>
-    <row r="277" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:32" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A277" s="78"/>
       <c r="B277" s="79"/>
       <c r="C277" s="154"/>
@@ -16222,7 +16172,7 @@
       <c r="AB277" s="7"/>
       <c r="AC277" s="7"/>
     </row>
-    <row r="278" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:32" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A278" s="78"/>
       <c r="B278" s="79"/>
       <c r="C278" s="154"/>
@@ -16274,7 +16224,7 @@
       <c r="AB278" s="7"/>
       <c r="AC278" s="7"/>
     </row>
-    <row r="279" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:32" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A279" s="80"/>
       <c r="B279" s="79"/>
       <c r="C279" s="154"/>
@@ -16326,7 +16276,7 @@
       <c r="AB279" s="7"/>
       <c r="AC279" s="7"/>
     </row>
-    <row r="280" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:32" ht="12.9" x14ac:dyDescent="0.35">
       <c r="A280" s="78"/>
       <c r="B280" s="79"/>
       <c r="C280" s="154"/>
@@ -16378,7 +16328,7 @@
       <c r="AB280" s="7"/>
       <c r="AC280" s="7"/>
     </row>
-    <row r="281" spans="1:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:32" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="81"/>
       <c r="B281" s="82"/>
       <c r="C281" s="83"/>
@@ -16430,7 +16380,7 @@
       <c r="AB281" s="7"/>
       <c r="AC281" s="7"/>
     </row>
-    <row r="282" spans="1:32" s="94" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:32" s="94" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="88"/>
       <c r="B282" s="89"/>
       <c r="C282" s="90" t="s">
@@ -16508,7 +16458,7 @@
       <c r="AE282" s="88"/>
       <c r="AF282" s="88"/>
     </row>
-    <row r="283" spans="1:32" s="94" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:32" s="94" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="88"/>
       <c r="B283" s="95"/>
       <c r="C283" s="96" t="s">
@@ -16586,7 +16536,7 @@
       <c r="AE283" s="88"/>
       <c r="AF283" s="88"/>
     </row>
-    <row r="284" spans="1:32" s="108" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:32" s="108" customFormat="1" ht="15.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="99"/>
       <c r="B284" s="100"/>
       <c r="C284" s="101" t="s">
@@ -16636,7 +16586,7 @@
       <c r="AE284" s="107"/>
       <c r="AF284" s="107"/>
     </row>
-    <row r="285" spans="1:32" s="108" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:32" s="108" customFormat="1" ht="15.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="99"/>
       <c r="B285" s="109"/>
       <c r="C285" s="110" t="s">
@@ -16689,7 +16639,7 @@
       <c r="AE285" s="107"/>
       <c r="AF285" s="107"/>
     </row>
-    <row r="286" spans="1:32" s="117" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:32" s="117" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A286" s="115"/>
       <c r="B286" s="118"/>
       <c r="C286" s="119" t="s">
@@ -16745,7 +16695,7 @@
       <c r="AE286" s="116"/>
       <c r="AF286" s="116"/>
     </row>
-    <row r="287" spans="1:32" s="117" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:32" s="117" customFormat="1" ht="15.45" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A287" s="115"/>
       <c r="B287" s="123"/>
       <c r="C287" s="43"/>
@@ -16776,7 +16726,7 @@
       <c r="AB287" s="116"/>
       <c r="AC287" s="116"/>
     </row>
-    <row r="288" spans="1:32" s="117" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:32" s="117" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="115"/>
       <c r="B288" s="123"/>
       <c r="C288" s="123"/>
@@ -16807,7 +16757,7 @@
       <c r="AB288" s="116"/>
       <c r="AC288" s="116"/>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A289" s="123"/>
       <c r="B289" s="123"/>
       <c r="C289" s="127"/>
@@ -16832,7 +16782,7 @@
       <c r="W289" s="125"/>
       <c r="X289" s="125"/>
     </row>
-    <row r="290" spans="1:24" s="107" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:24" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="123"/>
       <c r="B290" s="123"/>
       <c r="C290" s="127"/>
@@ -16848,7 +16798,7 @@
       <c r="W290" s="6"/>
       <c r="X290" s="6"/>
     </row>
-    <row r="291" spans="1:24" s="107" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:24" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="123"/>
       <c r="B291" s="123"/>
       <c r="C291" s="127"/>
@@ -16864,7 +16814,7 @@
       <c r="W291" s="6"/>
       <c r="X291" s="6"/>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A292" s="123"/>
       <c r="B292" s="123"/>
       <c r="C292" s="127"/>
@@ -16872,7 +16822,7 @@
       <c r="E292" s="123"/>
       <c r="F292" s="123"/>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A293" s="123"/>
       <c r="B293" s="123"/>
       <c r="C293" s="127"/>
@@ -16880,7 +16830,7 @@
       <c r="E293" s="123"/>
       <c r="F293" s="123"/>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A294" s="123"/>
       <c r="B294" s="123"/>
       <c r="C294" s="127"/>
@@ -16889,7 +16839,7 @@
       <c r="F294" s="123"/>
       <c r="S294" s="125"/>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A295" s="123"/>
       <c r="B295" s="123"/>
       <c r="C295" s="127"/>
@@ -16897,21 +16847,21 @@
       <c r="E295" s="123"/>
       <c r="F295" s="123"/>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A296" s="123"/>
       <c r="C296" s="30"/>
       <c r="D296" s="30"/>
       <c r="E296" s="26"/>
       <c r="F296" s="26"/>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A297" s="123"/>
       <c r="C297" s="128"/>
       <c r="D297" s="128"/>
       <c r="E297" s="26"/>
       <c r="F297" s="26"/>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C298" s="26"/>
       <c r="D298" s="26"/>
       <c r="E298" s="26"/>
@@ -16922,21 +16872,21 @@
     <mergeCell ref="T1:T6"/>
   </mergeCells>
   <conditionalFormatting sqref="E16:Q281">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND(NOT(ISBLANK($A16)),NOT(ISBLANK(E$12)),EXACT(E16,"P"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>AND(NOT(ISBLANK($A16)),NOT(ISBLANK(E$12)),EXACT(E16,"F"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>AND(NOT(ISBLANK($A16)),NOT(ISBLANK(E$12)),ISBLANK(E16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S281">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(NOT(ISBLANK($A16)),EXACT(S16,"P"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(NOT(ISBLANK($A16)),EXACT(S16,"F"))</formula>
     </cfRule>
   </conditionalFormatting>
